--- a/Assets/DataTable/XlsFile/Quest_List.xlsx
+++ b/Assets/DataTable/XlsFile/Quest_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/2/Funkeln/Assets/DataTable/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B5360-A1B8-554F-8C43-6CE6C46FE012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9BC9D-22F0-45DC-8D1F-2504CB33AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageList" sheetId="1" r:id="rId1"/>
@@ -91,11 +91,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -108,7 +108,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -229,7 +229,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,22 +544,22 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.69921875" customWidth="1"/>
+    <col min="5" max="5" width="12.796875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" thickBot="1">
+    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -597,7 +597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="6">
         <v>101</v>
       </c>
@@ -608,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -635,7 +635,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>102</v>
       </c>
@@ -673,7 +673,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="6">
         <v>103</v>
       </c>
@@ -711,7 +711,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="F5" s="4"/>
     </row>
   </sheetData>

--- a/Assets/DataTable/XlsFile/Quest_List.xlsx
+++ b/Assets/DataTable/XlsFile/Quest_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\XlsFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A9BC9D-22F0-45DC-8D1F-2504CB33AC43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA41D7-D33D-BD43-8D7B-4AD75D97ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>MapName</t>
   </si>
@@ -91,11 +91,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -108,7 +108,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -205,7 +205,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -218,9 +218,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -229,7 +226,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,7 +242,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,29 +541,29 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="15.296875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -597,8 +594,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
+    <row r="2" spans="1:12">
+      <c r="A2" s="5">
         <v>101</v>
       </c>
       <c r="B2" t="s">
@@ -635,8 +632,8 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A3" s="6">
+    <row r="3" spans="1:12">
+      <c r="A3" s="5">
         <v>102</v>
       </c>
       <c r="B3" t="s">
@@ -673,8 +670,8 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A4" s="6">
+    <row r="4" spans="1:12">
+      <c r="A4" s="5">
         <v>103</v>
       </c>
       <c r="B4" t="s">
@@ -711,8 +708,31 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="F5" s="4"/>
+    <row r="5" spans="1:12">
+      <c r="A5" s="5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>104000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Assets/DataTable/XlsFile/Quest_List.xlsx
+++ b/Assets/DataTable/XlsFile/Quest_List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBA41D7-D33D-BD43-8D7B-4AD75D97ACF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13283F19-929F-1042-9CAB-54F64F6034E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>MapName</t>
   </si>
@@ -538,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F51082F-399C-438E-9AF8-894D55DD6386}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -623,10 +623,10 @@
         <v>5000</v>
       </c>
       <c r="J2">
+        <v>5000</v>
+      </c>
+      <c r="K2">
         <v>4000</v>
-      </c>
-      <c r="K2">
-        <v>5000</v>
       </c>
       <c r="L2">
         <v>104000</v>
@@ -655,16 +655,16 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>104000</v>
+        <v>4000</v>
       </c>
       <c r="I3">
-        <v>104000</v>
+        <v>5000</v>
       </c>
       <c r="J3">
-        <v>104000</v>
+        <v>5000</v>
       </c>
       <c r="K3">
-        <v>104000</v>
+        <v>4000</v>
       </c>
       <c r="L3">
         <v>104000</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>104000</v>
+        <v>4000</v>
       </c>
       <c r="I4">
-        <v>104000</v>
+        <v>5000</v>
       </c>
       <c r="J4">
-        <v>104000</v>
+        <v>5000</v>
       </c>
       <c r="K4">
-        <v>104000</v>
+        <v>4000</v>
       </c>
       <c r="L4">
         <v>104000</v>
@@ -731,6 +731,32 @@
         <v>1</v>
       </c>
       <c r="H5">
+        <v>104000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="5">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>104000</v>
       </c>
     </row>

--- a/Assets/DataTable/XlsFile/Quest_List.xlsx
+++ b/Assets/DataTable/XlsFile/Quest_List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Funkeln/Assets/DataTable/XlsFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Assets/DataTable/XlsFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13283F19-929F-1042-9CAB-54F64F6034E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5F9864-F0F0-A548-8C15-F3B9FD0420A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>MapName</t>
   </si>
@@ -52,16 +52,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>新たな出会い</t>
-    <rPh sb="0" eb="1">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>デア</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>あれは・・？</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -85,6 +75,15 @@
   </si>
   <si>
     <t>EnemyStage3</t>
+  </si>
+  <si>
+    <t>出逢い</t>
+  </si>
+  <si>
+    <t>謎の軍勢</t>
+  </si>
+  <si>
+    <t>VSスピネル</t>
   </si>
 </sst>
 </file>
@@ -541,7 +540,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -558,28 +557,28 @@
   <sheetData>
     <row r="1" spans="1:12" ht="29" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -605,7 +604,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -617,19 +616,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4000</v>
-      </c>
-      <c r="I2">
-        <v>5000</v>
-      </c>
-      <c r="J2">
-        <v>5000</v>
-      </c>
-      <c r="K2">
-        <v>4000</v>
-      </c>
-      <c r="L2">
-        <v>104000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -637,7 +624,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -655,19 +642,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4000</v>
+        <v>106000</v>
       </c>
       <c r="I3">
-        <v>5000</v>
-      </c>
-      <c r="J3">
-        <v>5000</v>
-      </c>
-      <c r="K3">
-        <v>4000</v>
-      </c>
-      <c r="L3">
-        <v>104000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -675,13 +653,13 @@
         <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -693,19 +671,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4000</v>
+        <v>105000</v>
       </c>
       <c r="I4">
-        <v>5000</v>
+        <v>106000</v>
       </c>
       <c r="J4">
-        <v>5000</v>
-      </c>
-      <c r="K4">
-        <v>4000</v>
-      </c>
-      <c r="L4">
-        <v>104000</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -713,7 +685,7 @@
         <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -739,7 +711,7 @@
         <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>1</v>

--- a/Assets/DataTable/XlsFile/Quest_List.xlsx
+++ b/Assets/DataTable/XlsFile/Quest_List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kk/Desktop/Project/Coly/Assets/DataTable/XlsFile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\制作\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5F9864-F0F0-A548-8C15-F3B9FD0420A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769B2374-F3F6-40AD-BAE3-A36ACBE30917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
+    <workbookView xWindow="29190" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{9399BE26-D56F-4B5E-9B99-03A6601666B1}"/>
   </bookViews>
   <sheets>
     <sheet name="StageList" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MapName</t>
   </si>
@@ -85,16 +85,23 @@
   <si>
     <t>VSスピネル</t>
   </si>
+  <si>
+    <t>戦闘訓練</t>
+    <rPh sb="0" eb="4">
+      <t>セントウクンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -107,7 +114,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -225,7 +232,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,7 +248,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,25 +544,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F51082F-399C-438E-9AF8-894D55DD6386}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" thickBot="1">
+    <row r="1" spans="1:12" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -593,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>101</v>
       </c>
@@ -619,7 +626,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>102</v>
       </c>
@@ -648,7 +655,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>103</v>
       </c>
@@ -680,7 +687,7 @@
         <v>107000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>104</v>
       </c>
@@ -706,7 +713,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>105</v>
       </c>
@@ -730,6 +737,44 @@
       </c>
       <c r="H6">
         <v>104000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>105000</v>
+      </c>
+      <c r="I7">
+        <v>106000</v>
+      </c>
+      <c r="J7">
+        <v>105000</v>
+      </c>
+      <c r="K7">
+        <v>106000</v>
+      </c>
+      <c r="L7">
+        <v>107000</v>
       </c>
     </row>
   </sheetData>
